--- a/data/TC022.xlsx
+++ b/data/TC022.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -33,22 +33,25 @@
     <t>emailUsername</t>
   </si>
   <si>
-    <t>09safepass</t>
-  </si>
-  <si>
     <t>Verify Your Identity</t>
   </si>
   <si>
     <t>leadName</t>
   </si>
   <si>
-    <t>testmanatinc@gmail.com</t>
-  </si>
-  <si>
-    <t>testmanatinc@urcomp.com</t>
-  </si>
-  <si>
-    <t>Pandian, Alex</t>
+    <t>antman@inc.com</t>
+  </si>
+  <si>
+    <t>hunt@007</t>
+  </si>
+  <si>
+    <t>antman.hunt@gmail.com</t>
+  </si>
+  <si>
+    <t>hunt#123</t>
+  </si>
+  <si>
+    <t>Antony Joseph Rajenderan</t>
   </si>
 </sst>
 </file>
@@ -64,10 +67,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,7 +400,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +410,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -427,27 +430,27 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
